--- a/hardware/plug/1v2/Enclosure/0v3_Alu_Sample_better_documentation/BOM_76x35.xlsx
+++ b/hardware/plug/1v2/Enclosure/0v3_Alu_Sample_better_documentation/BOM_76x35.xlsx
@@ -84,9 +84,6 @@
     <t>TaoBao?</t>
   </si>
   <si>
-    <t>http://www.ebay.com/itm/121992475879?var=420993987775</t>
-  </si>
-  <si>
     <t>http://www.ebay.com/itm/141938770196?var=441070380530</t>
   </si>
   <si>
@@ -105,9 +102,6 @@
     <t>http://www.ebay.com/itm/301833214296?var=600643443952</t>
   </si>
   <si>
-    <t>8x M3x10 SS Button Head Socket Cap Screw</t>
-  </si>
-  <si>
     <t>http://www.ebay.com/itm/121992475879?var=420993987756</t>
   </si>
   <si>
@@ -118,6 +112,12 @@
   </si>
   <si>
     <t>http://www.ebay.com/itm/381492683443</t>
+  </si>
+  <si>
+    <t>8x M2.5x12 SS Button Head Socket Cap Screw</t>
+  </si>
+  <si>
+    <t>http://www.ebay.com/itm/122045959948?var=421066267740</t>
   </si>
 </sst>
 </file>
@@ -250,13 +250,13 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Calculation" xfId="1" builtinId="22"/>
@@ -544,7 +544,7 @@
   <dimension ref="A1:E36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5:E19"/>
+      <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -557,14 +557,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="21" x14ac:dyDescent="0.35">
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="5"/>
-      <c r="D1" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="E1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1" s="7"/>
     </row>
     <row r="2" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -580,7 +580,7 @@
         <v>20</v>
       </c>
       <c r="E2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -596,10 +596,10 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C5">
         <v>4.99</v>
@@ -607,10 +607,10 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>26</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>27</v>
       </c>
       <c r="C6">
         <f>3.99/100*4</f>
@@ -619,10 +619,10 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C7">
         <f>3.69/100*4</f>
@@ -631,14 +631,14 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="C8">
-        <f>4.39/100*8</f>
-        <v>0.35119999999999996</v>
+        <f>4/100*8</f>
+        <v>0.32</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -666,13 +666,13 @@
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="7" t="s">
+      <c r="A11" s="5" t="s">
         <v>4</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="7">
+      <c r="C11" s="5">
         <v>14.63</v>
       </c>
     </row>
@@ -702,7 +702,7 @@
         <v>6</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C16">
         <v>1.2</v>
@@ -724,7 +724,7 @@
         <v>8</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C18">
         <v>1.51</v>
@@ -752,7 +752,7 @@
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C22">
         <f>SUM(C5:C11)</f>
-        <v>22.957999999999998</v>
+        <v>22.9268</v>
       </c>
       <c r="E22">
         <f>SUM(E5:E11)</f>
@@ -773,7 +773,7 @@
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C25">
         <f>SUM(C22,C16:C19)</f>
-        <v>29.278000000000002</v>
+        <v>29.246800000000004</v>
       </c>
       <c r="E25">
         <f>SUM(E22,E16:E19)</f>
